--- a/Plancheck/plancheck_data/check_protocol/v19/seinDV.xlsx
+++ b/Plancheck/plancheck_data/check_protocol/v19/seinDV.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="141">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>PTV_AUTRES</t>
+  </si>
+  <si>
+    <t>seinDV</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1432,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
